--- a/storage/app/iprs/4/week_5.xlsx
+++ b/storage/app/iprs/4/week_5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Smoku\Pfron\pfron-backend\storage\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Smoku\Pfron\pfron-backend\storage\app\iprs\4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEDB697-66E3-4982-9D4E-E6A025A0B3DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37ED3EA-A6FA-46BE-9C71-B065CC3C179E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -618,7 +618,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AA7" sqref="A5:AA7"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
